--- a/biology/Botanique/Coffea_montekupensis/Coffea_montekupensis.xlsx
+++ b/biology/Botanique/Coffea_montekupensis/Coffea_montekupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coffea montekupensis, le caféier du mont Koupé, est une espèce de plantes dicotylédones de la famille des Rubiaceae, originaire du Cameroun.
 Noms vernaculaires
-Deha Mbine, Dea Mbone, signifiant « œil de cerf » en akoose (langue des Bakossis)[2].
+Deha Mbine, Dea Mbone, signifiant « œil de cerf » en akoose (langue des Bakossis).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coffea montekupensis est un arbrisseau de sous-bois, de 2 à 4 m de haut ; il présente des fleurs solitaires de couleur rose, caractéristique rare dans le genre Coffea, et des fruits rouge brillant à maturité.
 </t>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante endémique, qui n'est connue que dans une aire limitée du territoire tribal des Bakossis, c'est-à-dire le mont Koupé et les monts Bakossi[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante endémique, qui n'est connue que dans une aire limitée du territoire tribal des Bakossis, c'est-à-dire le mont Koupé et les monts Bakossi.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée comme espèce vulnérable (VU) au regard des critères de l'Union internationale pour la conservation de la nature (IUCN)[3].
-Des affiches destinées à sensibiliser la population à la nécessité de préserver les espèces végétales rares et menacées d'extinction ont été diffusés dans l'ouest du Cameroun par les Jardins botaniques royaux de Kew. Celle relative à l'espèce Coffea montekupensis a suscité un intérêt certain et a montré que la reconnaissance de cette plante, localement commune, est acquise[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée comme espèce vulnérable (VU) au regard des critères de l'Union internationale pour la conservation de la nature (IUCN).
+Des affiches destinées à sensibiliser la population à la nécessité de préserver les espèces végétales rares et menacées d'extinction ont été diffusés dans l'ouest du Cameroun par les Jardins botaniques royaux de Kew. Celle relative à l'espèce Coffea montekupensis a suscité un intérêt certain et a montré que la reconnaissance de cette plante, localement commune, est acquise. 
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coffea montekupensis a été découverte à l'occasion d'une campagne d'exploration botanique menée conjointement par les Jardins botaniques royaux de Kew et l'Herbier national du Cameroun de 1995 à 2001 d'abord dans le mont Koupé puis étendue à partir de 1998 dans les monts Bakossi[5].
-L'espèce a été décrite et publiée en 1997 dans le Kew Bulletin par le botaniste belge Piet Stoffelen[6].
-Cette espèce est l'une des douze espèces  (en y incluant Coffea arabica qui s'y est naturalisée) de caféiers reconnues au Cameroun[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coffea montekupensis a été découverte à l'occasion d'une campagne d'exploration botanique menée conjointement par les Jardins botaniques royaux de Kew et l'Herbier national du Cameroun de 1995 à 2001 d'abord dans le mont Koupé puis étendue à partir de 1998 dans les monts Bakossi.
+L'espèce a été décrite et publiée en 1997 dans le Kew Bulletin par le botaniste belge Piet Stoffelen.
+Cette espèce est l'une des douze espèces  (en y incluant Coffea arabica qui s'y est naturalisée) de caféiers reconnues au Cameroun.
 Coffea arabica L. (1753) (espèce naturalisée),
 Coffea liberica Bull. ex Hiern (1876),
 Coffea brevipes Hiern (1876),
